--- a/upload_files/data_engineer_mid__dba_jr_jl.xlsx
+++ b/upload_files/data_engineer_mid__dba_jr_jl.xlsx
@@ -220,28 +220,28 @@
     <t>hadoop : 2</t>
   </si>
   <si>
+    <t>automation : 2</t>
+  </si>
+  <si>
+    <t>oracle database : 3</t>
+  </si>
+  <si>
+    <t>tools : 2</t>
+  </si>
+  <si>
+    <t>administration : 1</t>
+  </si>
+  <si>
     <t>management : 12</t>
   </si>
   <si>
-    <t>oracle database : 3</t>
+    <t>database : 8</t>
+  </si>
+  <si>
+    <t>design : 3</t>
   </si>
   <si>
     <t>sql : 2</t>
-  </si>
-  <si>
-    <t>database : 8</t>
-  </si>
-  <si>
-    <t>tools : 2</t>
-  </si>
-  <si>
-    <t>automation : 2</t>
-  </si>
-  <si>
-    <t>design : 3</t>
-  </si>
-  <si>
-    <t>administration : 1</t>
   </si>
   <si>
     <t>25.0</t>
